--- a/WebSite/wwwroot/GroupUsers/ImportExelForExample.xlsx
+++ b/WebSite/wwwroot/GroupUsers/ImportExelForExample.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gghgg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Даня\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F885D18-4437-4999-BD0B-BA4FCB4BBB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{4DB37622-6DCD-4011-8B58-9953CC881358}"/>
   </bookViews>
   <sheets>
     <sheet name="visitors" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>№</t>
   </si>
@@ -59,6 +60,12 @@
     <t>Максим</t>
   </si>
   <si>
+    <t>Волков</t>
+  </si>
+  <si>
+    <t>Викторович</t>
+  </si>
+  <si>
     <t>Номер телефона</t>
   </si>
   <si>
@@ -90,18 +97,12 @@
   </si>
   <si>
     <t>Номер паспорта</t>
-  </si>
-  <si>
-    <t>Калиниченко</t>
-  </si>
-  <si>
-    <t>Сергеевич</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,29 +476,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0AA575-CD10-40F9-946B-C97C57EDCE36}">
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -511,28 +512,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -549,13 +550,13 @@
         <v>79624605145</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2" s="4">
         <f>DATE(2005,4,28)</f>
@@ -568,30 +569,30 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1">
         <v>89123123123</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3" s="4">
         <f>DATE(2003,4,28)</f>
@@ -604,87 +605,16 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1">
-        <v>79624605145</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="4">
-        <f>DATE(2005,4,28)</f>
-        <v>38470</v>
-      </c>
-      <c r="J4" s="1">
-        <v>4013</v>
-      </c>
-      <c r="K4" s="1">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1">
-        <v>89123123123</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="4">
-        <f>DATE(2003,4,28)</f>
-        <v>37739</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1304</v>
-      </c>
-      <c r="K5" s="1">
-        <v>311</v>
-      </c>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00BC5F48-052D-480C-BC25-A7C76F9B3AC0}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{2FAA62DF-9AB6-4530-BBF3-75B579404377}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/WebSite/wwwroot/GroupUsers/ImportExelForExample.xlsx
+++ b/WebSite/wwwroot/GroupUsers/ImportExelForExample.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Даня\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gghgg\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F885D18-4437-4999-BD0B-BA4FCB4BBB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{4DB37622-6DCD-4011-8B58-9953CC881358}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="visitors" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>№</t>
   </si>
@@ -60,12 +59,6 @@
     <t>Максим</t>
   </si>
   <si>
-    <t>Волков</t>
-  </si>
-  <si>
-    <t>Викторович</t>
-  </si>
-  <si>
     <t>Номер телефона</t>
   </si>
   <si>
@@ -97,12 +90,18 @@
   </si>
   <si>
     <t>Номер паспорта</t>
+  </si>
+  <si>
+    <t>Калиниченко</t>
+  </si>
+  <si>
+    <t>Сергеевич</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -476,29 +475,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0AA575-CD10-40F9-946B-C97C57EDCE36}">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -512,28 +511,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -550,13 +549,13 @@
         <v>79624605145</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I2" s="4">
         <f>DATE(2005,4,28)</f>
@@ -569,30 +568,30 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1">
         <v>89123123123</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I3" s="4">
         <f>DATE(2003,4,28)</f>
@@ -605,16 +604,87 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>79624605145</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="4">
+        <f>DATE(2005,4,28)</f>
+        <v>38470</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4013</v>
+      </c>
+      <c r="K4" s="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1">
+        <v>89123123123</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="4">
+        <f>DATE(2003,4,28)</f>
+        <v>37739</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1304</v>
+      </c>
+      <c r="K5" s="1">
+        <v>311</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00BC5F48-052D-480C-BC25-A7C76F9B3AC0}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{2FAA62DF-9AB6-4530-BBF3-75B579404377}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>